--- a/data/sample_file.xlsx
+++ b/data/sample_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emilio\code\vba\TreeParser\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0190CD88-8D63-40EF-A134-3C7512B15EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CE0CBD-DE7C-421E-A984-0100CF518177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transacciones_2023_12Dic" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="281">
   <si>
     <t>operationID</t>
   </si>
@@ -1151,27 +1151,6 @@
     <t>guihardvincent@gmail.com</t>
   </si>
   <si>
-    <t>QBH ASESORES COMERCIALES</t>
-  </si>
-  <si>
-    <t>LAURA SOFIA FERNANDEZ</t>
-  </si>
-  <si>
-    <t>SERGIO MOGUEL</t>
-  </si>
-  <si>
-    <t>BERENICE GUZMAN</t>
-  </si>
-  <si>
-    <t>GDL GENA</t>
-  </si>
-  <si>
-    <t>LETICIA BUSTOS</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
     <t>Mama Gallina</t>
   </si>
   <si>
@@ -1188,48 +1167,6 @@
   </si>
   <si>
     <t>Afiliación</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Onsigna</t>
-  </si>
-  <si>
-    <t>Corporativo K1</t>
-  </si>
-  <si>
-    <t>CORPORATIVO K</t>
-  </si>
-  <si>
-    <t>Corporativo K2</t>
-  </si>
-  <si>
-    <t>Onsigna Interno</t>
-  </si>
-  <si>
-    <t>SEGMENTO 3</t>
-  </si>
-  <si>
-    <t>BLUMON PAY</t>
-  </si>
-  <si>
-    <t>GRUPO NURICAAA</t>
-  </si>
-  <si>
-    <t>Techreo S.A.P.I. de C.V.</t>
-  </si>
-  <si>
-    <t>VG SEG4</t>
-  </si>
-  <si>
-    <t>VG GESTION EM</t>
-  </si>
-  <si>
-    <t>SEGMENTO 1</t>
-  </si>
-  <si>
-    <t>VG SEG1</t>
   </si>
 </sst>
 </file>
@@ -2270,17 +2207,17 @@
   <dimension ref="A1:AG1591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q22" sqref="Q22"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.21875" bestFit="1" customWidth="1"/>
@@ -2346,39 +2283,39 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="N2" s="15">
-        <f>SUM(N6:N1591)</f>
+        <f t="shared" ref="N2:V2" si="0">SUM(N6:N1591)</f>
         <v>185587.55</v>
       </c>
       <c r="O2" s="15">
-        <f>SUM(O6:O1591)</f>
+        <f t="shared" si="0"/>
         <v>70739.00999999998</v>
       </c>
       <c r="P2" s="15">
-        <f>SUM(P6:P1591)</f>
+        <f t="shared" si="0"/>
         <v>2074.34</v>
       </c>
       <c r="Q2" s="15">
-        <f>SUM(Q6:Q1591)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R2" s="15">
-        <f>SUM(R6:R1591)</f>
+        <f t="shared" si="0"/>
         <v>59.249999999999979</v>
       </c>
       <c r="S2" s="15">
-        <f>SUM(S6:S1591)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="T2" s="15">
-        <f>SUM(T6:T1591)</f>
+        <f t="shared" si="0"/>
         <v>1534.63</v>
       </c>
       <c r="U2" s="15">
-        <f>SUM(U6:U1591)</f>
+        <f t="shared" si="0"/>
         <v>320.2</v>
       </c>
       <c r="V2" s="15">
-        <f>SUM(V6:V1591)</f>
+        <f t="shared" si="0"/>
         <v>158.26</v>
       </c>
     </row>
@@ -2387,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>1</v>
@@ -2417,7 +2354,7 @@
         <v>8</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>9</v>
@@ -2491,15 +2428,9 @@
         <f>IF(LEFT(I6,3)="SUB","ADQUIRENCIA","EMISION")</f>
         <v>ADQUIRENCIA</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2514,7 +2445,7 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N6" s="4">
         <v>650</v>
@@ -2580,18 +2511,12 @@
         <v>2105334</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f t="shared" ref="B7:B34" si="0">IF(LEFT(I7,3)="SUB","ADQUIRENCIA","EMISION")</f>
+        <f t="shared" ref="B7:B34" si="1">IF(LEFT(I7,3)="SUB","ADQUIRENCIA","EMISION")</f>
         <v>ADQUIRENCIA</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2599,14 +2524,14 @@
         <v>30</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N7" s="4">
         <v>442</v>
@@ -2672,18 +2597,12 @@
         <v>2105341</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADQUIRENCIA</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -2691,14 +2610,14 @@
         <v>30</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N8" s="4">
         <v>1130</v>
@@ -2764,24 +2683,14 @@
         <v>2105348</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMISION</v>
       </c>
-      <c r="C9" s="2">
-        <v>1529768</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3" t="s">
         <v>46</v>
@@ -2793,10 +2702,10 @@
         <v>47</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N9" s="4">
         <v>4349</v>
@@ -2864,18 +2773,12 @@
         <v>2105402</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADQUIRENCIA</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2890,7 +2793,7 @@
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N10" s="4">
         <v>775</v>
@@ -2956,18 +2859,12 @@
         <v>2105409</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADQUIRENCIA</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2982,7 +2879,7 @@
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N11" s="4">
         <v>270</v>
@@ -3048,21 +2945,13 @@
         <v>2105428</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADQUIRENCIA</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="3" t="s">
@@ -3076,7 +2965,7 @@
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N12" s="4">
         <v>870.55</v>
@@ -3142,18 +3031,12 @@
         <v>2105462</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADQUIRENCIA</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -3168,7 +3051,7 @@
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N13" s="4">
         <v>1600</v>
@@ -3234,18 +3117,12 @@
         <v>2105517</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADQUIRENCIA</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -3260,7 +3137,7 @@
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N14" s="4">
         <v>650</v>
@@ -3326,18 +3203,12 @@
         <v>2105521</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADQUIRENCIA</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -3352,7 +3223,7 @@
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N15" s="4">
         <v>650</v>
@@ -3418,18 +3289,12 @@
         <v>2105525</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADQUIRENCIA</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -3444,7 +3309,7 @@
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N16" s="4">
         <v>480</v>
@@ -3510,18 +3375,12 @@
         <v>2105530</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADQUIRENCIA</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -3536,7 +3395,7 @@
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N17" s="4">
         <v>650</v>
@@ -3602,24 +3461,14 @@
         <v>2105537</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMISION</v>
       </c>
-      <c r="C18" s="2">
-        <v>6375983</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3" t="s">
         <v>86</v>
@@ -3631,10 +3480,10 @@
         <v>87</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N18" s="4">
         <v>2000</v>
@@ -3700,24 +3549,14 @@
         <v>2105540</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMISION</v>
       </c>
-      <c r="C19" s="2">
-        <v>1529768</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>266</v>
-      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3" t="s">
         <v>90</v>
@@ -3729,10 +3568,10 @@
         <v>82</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N19" s="4">
         <v>5270</v>
@@ -3800,18 +3639,12 @@
         <v>2105552</v>
       </c>
       <c r="B20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADQUIRENCIA</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -3826,7 +3659,7 @@
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N20" s="4">
         <v>636</v>
@@ -3892,18 +3725,12 @@
         <v>2105557</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADQUIRENCIA</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -3918,7 +3745,7 @@
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N21" s="4">
         <v>650</v>
@@ -3984,24 +3811,14 @@
         <v>2105577</v>
       </c>
       <c r="B22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMISION</v>
       </c>
-      <c r="C22" s="2">
-        <v>1529768</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3" t="s">
         <v>100</v>
@@ -4013,10 +3830,10 @@
         <v>47</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N22" s="4">
         <v>21000</v>
@@ -4084,21 +3901,13 @@
         <v>2105582</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMISION</v>
       </c>
-      <c r="C23" s="2">
-        <v>5204218</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="3" t="s">
@@ -4111,10 +3920,10 @@
         <v>47</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N23" s="4">
         <v>11995</v>
@@ -4182,24 +3991,14 @@
         <v>2105610</v>
       </c>
       <c r="B24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMISION</v>
       </c>
-      <c r="C24" s="2">
-        <v>1529768</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="3" t="s">
         <v>114</v>
@@ -4211,10 +4010,10 @@
         <v>115</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N24" s="4">
         <v>750</v>
@@ -4282,27 +4081,15 @@
         <v>2105614</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMISION</v>
       </c>
-      <c r="C25" s="2">
-        <v>3559605</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="3" t="s">
         <v>122</v>
       </c>
@@ -4313,10 +4100,10 @@
         <v>47</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N25" s="4">
         <v>800</v>
@@ -4384,21 +4171,13 @@
         <v>2105624</v>
       </c>
       <c r="B26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMISION</v>
       </c>
-      <c r="C26" s="2">
-        <v>7904405</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="3" t="s">
@@ -4411,10 +4190,10 @@
         <v>82</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N26" s="4">
         <v>700</v>
@@ -4482,24 +4261,14 @@
         <v>2105622</v>
       </c>
       <c r="B27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMISION</v>
       </c>
-      <c r="C27" s="2">
-        <v>1529768</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>278</v>
-      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="3" t="s">
         <v>135</v>
@@ -4511,10 +4280,10 @@
         <v>82</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N27" s="4">
         <v>1900</v>
@@ -4582,24 +4351,14 @@
         <v>2105635</v>
       </c>
       <c r="B28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMISION</v>
       </c>
-      <c r="C28" s="2">
-        <v>6375983</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="3" t="s">
         <v>86</v>
@@ -4611,10 +4370,10 @@
         <v>47</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N28" s="4">
         <v>1750</v>
@@ -4682,24 +4441,14 @@
         <v>2105642</v>
       </c>
       <c r="B29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMISION</v>
       </c>
-      <c r="C29" s="2">
-        <v>1529768</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="3" t="s">
         <v>114</v>
@@ -4711,10 +4460,10 @@
         <v>47</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N29" s="4">
         <v>100</v>
@@ -4782,24 +4531,14 @@
         <v>2105651</v>
       </c>
       <c r="B30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADQUIRENCIA</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="3" t="s">
         <v>149</v>
@@ -4812,7 +4551,7 @@
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N30" s="4">
         <v>999</v>
@@ -4878,18 +4617,12 @@
         <v>2105657</v>
       </c>
       <c r="B31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADQUIRENCIA</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -4904,7 +4637,7 @@
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N31" s="4">
         <v>2600</v>
@@ -4972,24 +4705,14 @@
         <v>2105660</v>
       </c>
       <c r="B32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADQUIRENCIA</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="3" t="s">
         <v>149</v>
@@ -5002,7 +4725,7 @@
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N32" s="4">
         <v>200</v>
@@ -5068,21 +4791,13 @@
         <v>2105670</v>
       </c>
       <c r="B33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMISION</v>
       </c>
-      <c r="C33" s="2">
-        <v>7532702</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>277</v>
-      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="3" t="s">
@@ -5095,10 +4810,10 @@
         <v>130</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N33" s="4">
         <v>500</v>
@@ -5164,21 +4879,13 @@
         <v>2105672</v>
       </c>
       <c r="B34" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMISION</v>
       </c>
-      <c r="C34" s="2">
-        <v>7532702</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>176</v>
-      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="3" t="s">
@@ -5191,10 +4898,10 @@
         <v>47</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N34" s="4">
         <v>400</v>
@@ -5262,18 +4969,12 @@
         <v>2105675</v>
       </c>
       <c r="B35" s="2" t="str">
-        <f t="shared" ref="B35:B51" si="1">IF(LEFT(I35,3)="SUB","ADQUIRENCIA","EMISION")</f>
+        <f t="shared" ref="B35:B51" si="2">IF(LEFT(I35,3)="SUB","ADQUIRENCIA","EMISION")</f>
         <v>EMISION</v>
       </c>
-      <c r="C35" s="2">
-        <v>2028693</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -5287,10 +4988,10 @@
         <v>47</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N35" s="4">
         <v>17000</v>
@@ -5358,24 +5059,14 @@
         <v>2105684</v>
       </c>
       <c r="B36" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>EMISION</v>
       </c>
-      <c r="C36" s="2">
-        <v>7606457</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="3" t="s">
         <v>185</v>
@@ -5387,10 +5078,10 @@
         <v>115</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N36" s="4">
         <v>10000</v>
@@ -5458,27 +5149,15 @@
         <v>2105685</v>
       </c>
       <c r="B37" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>EMISION</v>
       </c>
-      <c r="C37" s="2">
-        <v>9699835</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>197</v>
-      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="2"/>
       <c r="I37" s="3" t="s">
         <v>192</v>
       </c>
@@ -5489,10 +5168,10 @@
         <v>47</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N37" s="4">
         <v>3000</v>
@@ -5560,21 +5239,13 @@
         <v>2105699</v>
       </c>
       <c r="B38" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>EMISION</v>
       </c>
-      <c r="C38" s="2">
-        <v>3607625</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="3" t="s">
@@ -5587,10 +5258,10 @@
         <v>82</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N38" s="4">
         <v>1250</v>
@@ -5658,27 +5329,15 @@
         <v>2105693</v>
       </c>
       <c r="B39" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>EMISION</v>
       </c>
-      <c r="C39" s="2">
-        <v>3559605</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>208</v>
-      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="2"/>
       <c r="I39" s="3" t="s">
         <v>204</v>
       </c>
@@ -5689,10 +5348,10 @@
         <v>47</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N39" s="4">
         <v>4000</v>
@@ -5760,24 +5419,14 @@
         <v>2105696</v>
       </c>
       <c r="B40" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>EMISION</v>
       </c>
-      <c r="C40" s="2">
-        <v>1529768</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>266</v>
-      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="3" t="s">
         <v>90</v>
@@ -5789,10 +5438,10 @@
         <v>82</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N40" s="4">
         <v>60000</v>
@@ -5860,24 +5509,14 @@
         <v>2105709</v>
       </c>
       <c r="B41" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ADQUIRENCIA</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="3" t="s">
         <v>149</v>
@@ -5890,7 +5529,7 @@
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N41" s="4">
         <v>1000</v>
@@ -5956,21 +5595,13 @@
         <v>2105716</v>
       </c>
       <c r="B42" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>EMISION</v>
       </c>
-      <c r="C42" s="2">
-        <v>3607625</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="3" t="s">
@@ -5983,10 +5614,10 @@
         <v>47</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N42" s="4">
         <v>1230</v>
@@ -6054,27 +5685,15 @@
         <v>2105729</v>
       </c>
       <c r="B43" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>EMISION</v>
       </c>
-      <c r="C43" s="2">
-        <v>3559605</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>227</v>
-      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="2"/>
       <c r="I43" s="3" t="s">
         <v>222</v>
       </c>
@@ -6085,10 +5704,10 @@
         <v>47</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N43" s="4">
         <v>650</v>
@@ -6156,24 +5775,14 @@
         <v>2105744</v>
       </c>
       <c r="B44" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>EMISION</v>
       </c>
-      <c r="C44" s="2">
-        <v>6375983</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>234</v>
-      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="3" t="s">
         <v>229</v>
@@ -6185,10 +5794,10 @@
         <v>47</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N44" s="4">
         <v>300</v>
@@ -6256,24 +5865,14 @@
         <v>2105752</v>
       </c>
       <c r="B45" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>EMISION</v>
       </c>
-      <c r="C45" s="2">
-        <v>7403304</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>241</v>
-      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="3" t="s">
         <v>236</v>
@@ -6285,10 +5884,10 @@
         <v>47</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N45" s="4">
         <v>400</v>
@@ -6356,24 +5955,14 @@
         <v>2105756</v>
       </c>
       <c r="B46" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>EMISION</v>
       </c>
-      <c r="C46" s="2">
-        <v>6375983</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>234</v>
-      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="3" t="s">
         <v>229</v>
@@ -6385,10 +5974,10 @@
         <v>47</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N46" s="4">
         <v>700</v>
@@ -6456,24 +6045,14 @@
         <v>2105771</v>
       </c>
       <c r="B47" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>EMISION</v>
       </c>
-      <c r="C47" s="2">
-        <v>1529768</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="3" t="s">
         <v>247</v>
@@ -6485,10 +6064,10 @@
         <v>82</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N47" s="4">
         <v>1000</v>
@@ -6556,18 +6135,12 @@
         <v>2105780</v>
       </c>
       <c r="B48" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ADQUIRENCIA</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -6582,7 +6155,7 @@
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N48" s="4">
         <v>4300</v>
@@ -6650,21 +6223,13 @@
         <v>2105782</v>
       </c>
       <c r="B49" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ADQUIRENCIA</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>260</v>
-      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="3" t="s">
@@ -6678,7 +6243,7 @@
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N49" s="4">
         <v>5000</v>
@@ -6746,24 +6311,14 @@
         <v>2105788</v>
       </c>
       <c r="B50" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>EMISION</v>
       </c>
-      <c r="C50" s="2">
-        <v>1529768</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>266</v>
-      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="3" t="s">
         <v>90</v>
@@ -6775,10 +6330,10 @@
         <v>47</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N50" s="4">
         <v>8041</v>
@@ -6846,21 +6401,13 @@
         <v>2105793</v>
       </c>
       <c r="B51" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>EMISION</v>
       </c>
-      <c r="C51" s="2">
-        <v>2546005</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>273</v>
-      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="3" t="s">
@@ -6873,10 +6420,10 @@
         <v>47</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N51" s="4">
         <v>2950</v>
